--- a/GitHubRepo/List/AD.xlsx
+++ b/GitHubRepo/List/AD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muyeedahmed/Desktop/Gitcode/AD_Attack/GitHubRepo/List/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DFF5300D-9939-D744-9939-08186B64D2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6B84ACD0-CD23-074F-8398-1260DE23C079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="760" windowWidth="27120" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="500" windowWidth="27120" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AD" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="3206" uniqueCount="1619">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="3228" uniqueCount="1624">
   <si>
     <t>Repository URL</t>
   </si>
@@ -4885,13 +4885,28 @@
   </si>
   <si>
     <t>Example</t>
+  </si>
+  <si>
+    <t>86 Paper Implementation</t>
+  </si>
+  <si>
+    <t>Augur is a software suite for collecting and measuring structured data about free and open-source software (FOSS) communities.</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>Dataset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5022,6 +5037,21 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5336,7 +5366,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -5379,13 +5409,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -5419,6 +5452,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -5741,8 +5775,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1587"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6196,7 +6230,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -6207,7 +6241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1426</v>
       </c>
@@ -6217,8 +6251,11 @@
       <c r="C34" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1177</v>
       </c>
@@ -6228,8 +6265,11 @@
       <c r="C35" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1231</v>
       </c>
@@ -6239,8 +6279,11 @@
       <c r="C36" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -6250,8 +6293,11 @@
       <c r="C37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -6261,8 +6307,11 @@
       <c r="C38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -6272,8 +6321,11 @@
       <c r="C39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -6283,8 +6335,11 @@
       <c r="C40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1362</v>
       </c>
@@ -6294,8 +6349,11 @@
       <c r="C41" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -6306,7 +6364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -6316,8 +6374,11 @@
       <c r="C43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -6328,7 +6389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>989</v>
       </c>
@@ -6338,8 +6399,11 @@
       <c r="C45" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -6349,8 +6413,11 @@
       <c r="C46" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -6360,8 +6427,11 @@
       <c r="C47" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -6371,8 +6441,11 @@
       <c r="C48" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1186</v>
       </c>
@@ -6382,8 +6455,11 @@
       <c r="C49" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -6393,8 +6469,11 @@
       <c r="C50" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -6404,8 +6483,11 @@
       <c r="C51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -6415,8 +6497,11 @@
       <c r="C52" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -6427,7 +6512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -6438,7 +6523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1489</v>
       </c>
@@ -6449,7 +6534,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1185</v>
       </c>
@@ -6459,8 +6544,11 @@
       <c r="C56" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -6471,7 +6559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -6482,7 +6570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1559</v>
       </c>
@@ -6493,7 +6581,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -6503,8 +6591,11 @@
       <c r="C60" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>45</v>
       </c>
@@ -6515,7 +6606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -6525,8 +6616,11 @@
       <c r="C62" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -6536,8 +6630,11 @@
       <c r="C63" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" s="4" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1306</v>
       </c>
@@ -6548,7 +6645,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -6559,7 +6656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -6569,8 +6666,11 @@
       <c r="C66" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" s="4" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -6581,7 +6681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -6592,7 +6692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1488</v>
       </c>
@@ -6603,7 +6703,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1507</v>
       </c>
@@ -6614,7 +6714,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>737</v>
       </c>
@@ -6625,8 +6725,8 @@
         <v>736</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
         <v>926</v>
       </c>
       <c r="B72">
@@ -6636,7 +6736,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1458</v>
       </c>
@@ -6647,7 +6747,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>53</v>
       </c>
@@ -6658,7 +6758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>54</v>
       </c>
@@ -6669,7 +6769,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>55</v>
       </c>
@@ -6680,7 +6780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>56</v>
       </c>
@@ -6691,7 +6791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>57</v>
       </c>
@@ -6702,7 +6802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>58</v>
       </c>
@@ -6713,7 +6813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>59</v>
       </c>
@@ -23307,6 +23407,9 @@
       <sortCondition descending="1" ref="B1:B1587"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="A72" r:id="rId1" xr:uid="{D72E2A1A-A590-6540-89DA-04E2901AD6AC}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>